--- a/학습자료/단답형/객관식_한국사_대조_신라 비석 내용.xlsx
+++ b/학습자료/단답형/객관식_한국사_대조_신라 비석 내용.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>현존 최고(最古) 신라비
-1. 영천 청제비
-2. 포항 중성리 신라비
-3. (포항) 영일 냉수리비</t>
+1. 포항 중성리 신라비
+2. 영천 청제비
+3. 창녕비</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 포항 중성리 신라비</t>
+          <t>1, 포항 중성리 신라비</t>
         </is>
       </c>
     </row>
@@ -464,9 +464,9 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>신라를 '사라'로 표기, 갈문왕 명칭, '절거리'에 대한 재산권 분장
-1. 울진 봉평비
+1. 포항 중성리 신라비
 2. (포항) 영일 냉수리비
-3. 영천 청제비</t>
+3. 북한산비</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>영토 확장, 율령 반포 입증, 신라 관등
-1. 남산 신성비
-2. 울진 봉평비
-3. 포항 중성리 신라비</t>
+1. 울진 봉평비
+2. 북한산비
+3. 창녕비</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2, 울진 봉평비</t>
+          <t>1, 울진 봉평비</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>제방 축조 시 부역 동원
-1. 영천 청제비
-2. 울진 봉평비
-3. 포항 중성리 신라비</t>
+1. 황초령비, 마운령비
+2. 영천 청제비
+3. 단양 적성비</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1, 영천 청제비</t>
+          <t>2, 영천 청제비</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>한강 상류 진출
-1. 단양 적성비
+1. (포항) 영일 냉수리비
 2. 남산 신성비
-3. 영천 청제비</t>
+3. 단양 적성비</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1, 단양 적성비</t>
+          <t>3, 단양 적성비</t>
         </is>
       </c>
     </row>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>한강 하류 확보(김정희)
-1. 북한산비
-2. (포항) 영일 냉수리비
-3. 남산 신성비</t>
+1. 남산 신성비
+2. 북한산비
+3. 울진 봉평비</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1, 북한산비</t>
+          <t>2, 북한산비</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>대가야 정복 과정
-1. 창녕비
-2. 남산 신성비
-3. 울진 봉평비</t>
+1. (포항) 영일 냉수리비
+2. 창녕비
+3. 남산 신성비</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1, 창녕비</t>
+          <t>2, 창녕비</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>신성 축조 시 부역 동원 사실, 촌주 명칭
-1. 남산 신성비
-2. 단양 적성비
+1. 영천 청제비
+2. 남산 신성비
 3. 포항 중성리 신라비</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1, 남산 신성비</t>
+          <t>2, 남산 신성비</t>
         </is>
       </c>
     </row>
